--- a/CP015/Default.xlsx
+++ b/CP015/Default.xlsx
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t/>
   </si>
   <si>
-    <t>e_WIC_ValidaCli</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>123900000256142</t>
+    <t>8958080008100336376</t>
   </si>
   <si>
     <t>s_Resultado</t>
@@ -52,18 +46,36 @@
     <t>e_ID_SIM</t>
   </si>
   <si>
+    <t>123900000340821</t>
+  </si>
+  <si>
     <t>Timer</t>
   </si>
   <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>rdiazc</t>
+  </si>
+  <si>
     <t>Operador Virtual</t>
   </si>
   <si>
     <t>e_SubCategoria</t>
   </si>
   <si>
+    <t>RV Plan Movistar Especial S/ 89.90 :</t>
+  </si>
+  <si>
     <t>e_Financiamiento_Externo</t>
   </si>
   <si>
+    <t>123900000340847</t>
+  </si>
+  <si>
+    <t>123900000340854</t>
+  </si>
+  <si>
     <t>s_Nro_Orden</t>
   </si>
   <si>
@@ -85,24 +97,15 @@
     <t>e_MetodoPago</t>
   </si>
   <si>
-    <t>8958080008100253845</t>
-  </si>
-  <si>
-    <t>8958080008100253852</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>ST_Wipro</t>
-  </si>
-  <si>
     <t>e_NumContactoAsociado</t>
   </si>
   <si>
     <t>s_FechaEjecucion</t>
   </si>
   <si>
+    <t>e_TipoServAdicional</t>
+  </si>
+  <si>
     <t>e_Usuario</t>
   </si>
   <si>
@@ -121,21 +124,33 @@
     <t>LIMA</t>
   </si>
   <si>
+    <t>AE</t>
+  </si>
+  <si>
     <t>POSTPAGO</t>
   </si>
   <si>
     <t>e_TipodeAlta</t>
   </si>
   <si>
+    <t>Plan RPM Total II 115 :</t>
+  </si>
+  <si>
     <t>e_Tipo_De_DATA_Sim</t>
   </si>
   <si>
     <t>e_ID_Dispositivo</t>
   </si>
   <si>
+    <t>Subproductos disponibles_attached text_out</t>
+  </si>
+  <si>
     <t>Equipo + Linea</t>
   </si>
   <si>
+    <t>Solo Linea</t>
+  </si>
+  <si>
     <t>DATA LOGICA</t>
   </si>
   <si>
@@ -146,6 +161,9 @@
   </si>
   <si>
     <t>s_Fin_Ejecucion</t>
+  </si>
+  <si>
+    <t>Alta Nueva Solo Linea</t>
   </si>
   <si>
     <t xml:space="preserve">HUAWEI Y8S NEGRO JKM-LX3
@@ -158,19 +176,22 @@
     <t>Pago a la Factura</t>
   </si>
   <si>
-    <t>AB</t>
-  </si>
-  <si>
     <t>Inicio</t>
   </si>
   <si>
+    <t>UAT13</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
     <t>e_ModeloCelular</t>
   </si>
   <si>
     <t>TSPE4128234R510201TARJETA USIM 4G 128K 2/3/4FF R5</t>
   </si>
   <si>
-    <t>123900000256159</t>
+    <t>AF</t>
   </si>
   <si>
     <t>Fin</t>
@@ -179,15 +200,15 @@
     <t>ALBERTO</t>
   </si>
   <si>
-    <t>UAT4</t>
-  </si>
-  <si>
     <t>e_CR3988</t>
   </si>
   <si>
     <t>s_ID_Servicio</t>
   </si>
   <si>
+    <t>AB1</t>
+  </si>
+  <si>
     <t>e_Tipo</t>
   </si>
   <si>
@@ -197,42 +218,51 @@
     <t>JESUS MARIA</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>e_Provincia</t>
   </si>
   <si>
     <t>e_TipoDePlan</t>
   </si>
   <si>
-    <t>RV Plan Movistar Especial S/ 99.90 :</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>MOVISTAR-12 cuotas</t>
   </si>
   <si>
+    <t>8958080008100336368</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
     <t>e_Password</t>
   </si>
   <si>
+    <t>e_ServAdicional</t>
+  </si>
+  <si>
     <t>e_Plan_Financiamiento</t>
   </si>
   <si>
-    <t>123900000256167</t>
+    <t>AG</t>
   </si>
   <si>
     <t>CE</t>
   </si>
   <si>
+    <t>Subproductos disponibles</t>
+  </si>
+  <si>
     <t>Alta Nueva Equipo + Linea</t>
   </si>
   <si>
-    <t>Plan Acceso Datos S/20</t>
-  </si>
-  <si>
     <t>e_TipoPago</t>
   </si>
   <si>
+    <t>123900000340839</t>
+  </si>
+  <si>
     <t>s_ValEstadoOrden</t>
   </si>
   <si>
@@ -251,13 +281,13 @@
     <t>e_MotivoAlta</t>
   </si>
   <si>
-    <t>Plan Ahorro RPM L S/55</t>
-  </si>
-  <si>
     <t>En Tienda</t>
   </si>
   <si>
-    <t>8958080008100253837</t>
+    <t>8958080008100336343</t>
+  </si>
+  <si>
+    <t>8958080008100336350</t>
   </si>
   <si>
     <t>e_NumPorta</t>
@@ -446,18 +476,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -467,18 +494,15 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -780,18 +804,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
@@ -799,10 +823,13 @@
         <v>26</v>
       </c>
       <c t="s">
-        <v>8</v>
-      </c>
-      <c t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c t="s">
+        <v>46</v>
+      </c>
+      <c t="s">
+        <v>40</v>
       </c>
     </row>
     <row>
@@ -812,8 +839,11 @@
       <c s="1" t="s">
         <v>0</v>
       </c>
-      <c s="3" t="s">
+      <c s="1" t="s">
         <v>0</v>
+      </c>
+      <c s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -828,187 +858,427 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.0390625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.171875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.71484375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.0546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.04296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.3828125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.03125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.14453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.34375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.41796875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.66796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.10546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.1484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.41796875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="16.234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.41796875" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.0390625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.171875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.71484375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.04296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.3828125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.91015625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.03125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.14453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.34375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7421875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.41796875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="19.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.53515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.66796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.10546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.1484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.41796875" style="3" customWidth="1"/>
+    <col min="26" max="26" width="16.234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="33" width="9.41796875" style="3" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c t="s">
+        <v>36</v>
+      </c>
+      <c t="s">
+        <v>85</v>
+      </c>
+      <c t="s">
+        <v>32</v>
+      </c>
+      <c t="s">
+        <v>66</v>
+      </c>
+      <c t="s">
+        <v>54</v>
+      </c>
+      <c t="s">
+        <v>13</v>
+      </c>
+      <c t="s">
+        <v>67</v>
+      </c>
+      <c t="s">
+        <v>21</v>
+      </c>
+      <c t="s">
+        <v>49</v>
+      </c>
+      <c t="s">
+        <v>27</v>
+      </c>
+      <c t="s">
+        <v>72</v>
+      </c>
+      <c t="s">
+        <v>22</v>
+      </c>
+      <c t="s">
+        <v>15</v>
+      </c>
+      <c t="s">
+        <v>73</v>
+      </c>
+      <c t="s">
+        <v>78</v>
+      </c>
+      <c t="s">
+        <v>24</v>
+      </c>
+      <c t="s">
+        <v>59</v>
+      </c>
+      <c t="s">
+        <v>38</v>
+      </c>
+      <c t="s">
+        <v>7</v>
+      </c>
+      <c t="s">
+        <v>39</v>
+      </c>
+      <c t="s">
+        <v>18</v>
+      </c>
+      <c t="s">
+        <v>60</v>
+      </c>
+      <c t="s">
+        <v>2</v>
+      </c>
+      <c t="s">
+        <v>3</v>
+      </c>
+      <c t="s">
+        <v>80</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+      <c t="s">
+        <v>61</v>
+      </c>
+      <c t="s">
+        <v>70</v>
+      </c>
+      <c t="s">
+        <v>10</v>
+      </c>
+      <c t="s">
+        <v>34</v>
+      </c>
+      <c t="s">
+        <v>56</v>
       </c>
       <c t="s">
         <v>74</v>
       </c>
-      <c t="s">
-        <v>34</v>
-      </c>
-      <c t="s">
-        <v>75</v>
-      </c>
-      <c t="s">
-        <v>31</v>
-      </c>
-      <c t="s">
-        <v>58</v>
-      </c>
-      <c t="s">
+    </row>
+    <row ht="25.5">
+      <c s="1" t="s">
+        <v>65</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>41</v>
+      </c>
+      <c s="4" t="s">
+        <v>33</v>
+      </c>
+      <c s="4" t="s">
+        <v>33</v>
+      </c>
+      <c s="5" t="s">
+        <v>48</v>
+      </c>
+      <c s="5" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>14</v>
+      </c>
+      <c s="1" t="s">
+        <v>55</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1" t="s">
+        <v>86</v>
+      </c>
+      <c s="1" t="s">
+        <v>65</v>
+      </c>
+      <c s="1" t="s">
+        <v>68</v>
+      </c>
+      <c s="1" t="s">
+        <v>23</v>
+      </c>
+      <c s="1" t="s">
+        <v>50</v>
+      </c>
+      <c s="1" t="s">
+        <v>65</v>
+      </c>
+      <c s="1" t="s">
+        <v>43</v>
+      </c>
+      <c s="6" t="s">
+        <v>87</v>
+      </c>
+      <c s="6" t="s">
+        <v>8</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="2"/>
+    </row>
+    <row ht="25.5">
+      <c s="1" t="s">
+        <v>65</v>
+      </c>
+      <c s="1" t="s">
         <v>47</v>
       </c>
-      <c t="s">
-        <v>12</v>
-      </c>
-      <c t="s">
-        <v>59</v>
-      </c>
-      <c t="s">
-        <v>17</v>
-      </c>
-      <c t="s">
+      <c s="1" t="s">
+        <v>42</v>
+      </c>
+      <c s="4" t="s">
+        <v>33</v>
+      </c>
+      <c s="4" t="s">
+        <v>33</v>
+      </c>
+      <c s="5" t="s">
+        <v>48</v>
+      </c>
+      <c s="5" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>14</v>
+      </c>
+      <c s="1" t="s">
+        <v>55</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1" t="s">
+        <v>86</v>
+      </c>
+      <c s="1" t="s">
+        <v>65</v>
+      </c>
+      <c s="1" t="s">
+        <v>68</v>
+      </c>
+      <c s="1" t="s">
+        <v>23</v>
+      </c>
+      <c s="1" t="s">
+        <v>50</v>
+      </c>
+      <c s="1" t="s">
+        <v>65</v>
+      </c>
+      <c s="1" t="s">
         <v>43</v>
       </c>
-      <c t="s">
-        <v>18</v>
-      </c>
-      <c t="s">
-        <v>13</v>
-      </c>
-      <c t="s">
-        <v>64</v>
-      </c>
-      <c t="s">
+      <c s="6" t="s">
+        <v>88</v>
+      </c>
+      <c s="6" t="s">
+        <v>79</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="2"/>
+    </row>
+    <row ht="25.5">
+      <c s="1" t="s">
+        <v>65</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>42</v>
+      </c>
+      <c s="4" t="s">
+        <v>33</v>
+      </c>
+      <c s="4" t="s">
+        <v>33</v>
+      </c>
+      <c s="5" t="s">
+        <v>48</v>
+      </c>
+      <c s="5" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" t="s">
+        <v>55</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1" t="s">
+        <v>86</v>
+      </c>
+      <c s="1" t="s">
+        <v>65</v>
+      </c>
+      <c s="1" t="s">
+        <v>68</v>
+      </c>
+      <c s="1" t="s">
+        <v>23</v>
+      </c>
+      <c s="1" t="s">
+        <v>50</v>
+      </c>
+      <c s="1" t="s">
+        <v>65</v>
+      </c>
+      <c s="1" t="s">
+        <v>43</v>
+      </c>
+      <c s="6" t="s">
         <v>69</v>
-      </c>
-      <c t="s">
-        <v>20</v>
-      </c>
-      <c t="s">
-        <v>53</v>
-      </c>
-      <c t="s">
-        <v>35</v>
-      </c>
-      <c t="s">
-        <v>9</v>
-      </c>
-      <c t="s">
-        <v>36</v>
-      </c>
-      <c t="s">
-        <v>14</v>
-      </c>
-      <c t="s">
-        <v>54</v>
-      </c>
-      <c t="s">
-        <v>4</v>
-      </c>
-      <c t="s">
-        <v>5</v>
-      </c>
-      <c t="s">
-        <v>70</v>
-      </c>
-      <c t="s">
-        <v>10</v>
-      </c>
-      <c t="s">
-        <v>23</v>
-      </c>
-      <c t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row ht="25.5">
-      <c s="1" t="s">
-        <v>2</v>
-      </c>
-      <c s="1" t="s">
-        <v>2</v>
-      </c>
-      <c s="1" t="s">
-        <v>67</v>
-      </c>
-      <c s="1" t="s">
-        <v>37</v>
-      </c>
-      <c s="5" t="s">
-        <v>32</v>
-      </c>
-      <c s="5" t="s">
-        <v>32</v>
-      </c>
-      <c s="6" t="s">
-        <v>42</v>
       </c>
       <c s="6" t="s">
         <v>16</v>
       </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="2"/>
+    </row>
+    <row ht="25.5">
+      <c s="1" t="s">
+        <v>65</v>
+      </c>
+      <c s="1" t="s">
+        <v>47</v>
+      </c>
+      <c s="1" t="s">
+        <v>42</v>
+      </c>
+      <c s="4" t="s">
+        <v>33</v>
+      </c>
+      <c s="4" t="s">
+        <v>33</v>
+      </c>
+      <c s="5" t="s">
+        <v>48</v>
+      </c>
+      <c s="5" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" t="s">
+        <v>55</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1" t="s">
+        <v>86</v>
+      </c>
+      <c s="1" t="s">
+        <v>65</v>
+      </c>
       <c s="1" t="s">
         <v>68</v>
       </c>
       <c s="1" t="s">
-        <v>48</v>
-      </c>
-      <c s="1"/>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>61</v>
-      </c>
-      <c s="1" t="s">
-        <v>62</v>
-      </c>
-      <c s="1" t="s">
-        <v>19</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>61</v>
-      </c>
-      <c s="1" t="s">
-        <v>38</v>
-      </c>
-      <c s="7" t="s">
-        <v>78</v>
-      </c>
-      <c s="7" t="s">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c s="1" t="s">
+        <v>50</v>
+      </c>
+      <c s="1" t="s">
+        <v>65</v>
+      </c>
+      <c s="1" t="s">
+        <v>43</v>
+      </c>
+      <c s="6" t="s">
+        <v>1</v>
+      </c>
+      <c s="6" t="s">
+        <v>17</v>
       </c>
       <c s="1"/>
       <c s="1"/>
@@ -1021,151 +1291,11 @@
         <v>0</v>
       </c>
       <c s="1"/>
-      <c s="3"/>
-    </row>
-    <row ht="25.5">
-      <c s="1" t="s">
-        <v>2</v>
-      </c>
-      <c s="1" t="s">
-        <v>2</v>
-      </c>
-      <c s="1" t="s">
-        <v>67</v>
-      </c>
-      <c s="1" t="s">
-        <v>37</v>
-      </c>
-      <c s="5" t="s">
-        <v>32</v>
-      </c>
-      <c s="5" t="s">
-        <v>32</v>
-      </c>
-      <c s="6" t="s">
-        <v>42</v>
-      </c>
-      <c s="6" t="s">
-        <v>16</v>
-      </c>
-      <c s="1" t="s">
-        <v>60</v>
-      </c>
-      <c s="1" t="s">
-        <v>48</v>
-      </c>
-      <c s="1"/>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>61</v>
-      </c>
-      <c s="1" t="s">
-        <v>62</v>
-      </c>
-      <c s="1" t="s">
-        <v>19</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>61</v>
-      </c>
-      <c s="1" t="s">
-        <v>38</v>
-      </c>
-      <c s="7" t="s">
-        <v>21</v>
-      </c>
-      <c s="7" t="s">
-        <v>49</v>
-      </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1"/>
-      <c s="3"/>
-    </row>
-    <row ht="25.5">
-      <c s="1" t="s">
-        <v>2</v>
-      </c>
-      <c s="1" t="s">
-        <v>2</v>
-      </c>
-      <c s="1" t="s">
-        <v>67</v>
-      </c>
-      <c s="1" t="s">
-        <v>37</v>
-      </c>
-      <c s="5" t="s">
-        <v>32</v>
-      </c>
-      <c s="5" t="s">
-        <v>32</v>
-      </c>
-      <c s="6" t="s">
-        <v>42</v>
-      </c>
-      <c s="6" t="s">
-        <v>16</v>
-      </c>
-      <c s="1" t="s">
-        <v>76</v>
-      </c>
-      <c s="1" t="s">
-        <v>48</v>
-      </c>
-      <c s="1"/>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>61</v>
-      </c>
-      <c s="1" t="s">
-        <v>62</v>
-      </c>
-      <c s="1" t="s">
-        <v>19</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>61</v>
-      </c>
-      <c s="1" t="s">
-        <v>38</v>
-      </c>
-      <c s="7" t="s">
-        <v>22</v>
-      </c>
-      <c s="7" t="s">
-        <v>65</v>
-      </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1"/>
-      <c s="3"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -1185,37 +1315,37 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.1484375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.49609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.03125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>46</v>
-      </c>
-      <c t="s">
-        <v>15</v>
-      </c>
-      <c t="s">
-        <v>27</v>
-      </c>
-      <c t="s">
-        <v>63</v>
-      </c>
-      <c t="s">
-        <v>4</v>
-      </c>
-      <c t="s">
-        <v>50</v>
-      </c>
-      <c t="s">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c t="s">
+        <v>19</v>
+      </c>
+      <c t="s">
+        <v>28</v>
+      </c>
+      <c t="s">
+        <v>71</v>
+      </c>
+      <c t="s">
+        <v>2</v>
+      </c>
+      <c t="s">
+        <v>57</v>
+      </c>
+      <c t="s">
+        <v>9</v>
       </c>
     </row>
     <row>
@@ -1226,10 +1356,10 @@
         <v>52</v>
       </c>
       <c s="1" t="s">
-        <v>24</v>
-      </c>
-      <c s="1" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c s="1" t="s">
+        <v>11</v>
       </c>
       <c s="1" t="s">
         <v>0</v>
@@ -1237,7 +1367,7 @@
       <c s="1" t="s">
         <v>0</v>
       </c>
-      <c s="3" t="s">
+      <c s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1256,41 +1386,41 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.3125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>28</v>
-      </c>
-      <c t="s">
-        <v>6</v>
-      </c>
-      <c t="s">
         <v>29</v>
       </c>
       <c t="s">
+        <v>4</v>
+      </c>
+      <c t="s">
+        <v>30</v>
+      </c>
+      <c t="s">
         <v>25</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c s="8">
-        <v>100010001</v>
-      </c>
-      <c s="1"/>
-      <c s="3"/>
+        <v>72078026</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -1310,18 +1440,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="1" max="16384" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row>
-      <c s="3" t="s">
+      <c s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1343,41 +1473,41 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.16015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>55</v>
-      </c>
-      <c t="s">
-        <v>79</v>
-      </c>
-      <c t="s">
-        <v>39</v>
-      </c>
-      <c t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+      <c t="s">
+        <v>89</v>
+      </c>
+      <c t="s">
+        <v>44</v>
+      </c>
+      <c t="s">
+        <v>81</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c s="1">
         <v>920951680</v>
       </c>
       <c s="1" t="s">
-        <v>7</v>
-      </c>
-      <c s="3" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1390,44 +1520,44 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.59375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.63671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>72</v>
-      </c>
-      <c t="s">
-        <v>40</v>
-      </c>
-      <c t="s">
-        <v>56</v>
-      </c>
-      <c t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row s="9" customFormat="1">
-      <c s="4" t="s">
-        <v>66</v>
-      </c>
-      <c s="4" t="s">
-        <v>51</v>
-      </c>
-      <c s="4" t="s">
-        <v>73</v>
-      </c>
-      <c s="10" t="s">
-        <v>57</v>
+        <v>82</v>
+      </c>
+      <c t="s">
+        <v>45</v>
+      </c>
+      <c t="s">
+        <v>63</v>
+      </c>
+      <c t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>75</v>
+      </c>
+      <c s="1" t="s">
+        <v>58</v>
+      </c>
+      <c s="1" t="s">
+        <v>83</v>
+      </c>
+      <c s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
